--- a/analysis/thalamus/figures_tables/choroid_associations/deep_grey_choroid_ventricle_model.xlsx
+++ b/analysis/thalamus/figures_tables/choroid_associations/deep_grey_choroid_ventricle_model.xlsx
@@ -488,19 +488,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1396601276709054</v>
+        <v>-0.1396601276709057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009694011392306615</v>
+        <v>0.009694011392306457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05238757493834231</v>
+        <v>0.0523875749383423</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.245323782202843</v>
+        <v>-0.2453237822028433</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03399647313896786</v>
+        <v>-0.03399647313896817</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.02908203417691985</v>
+        <v>0.02908203417691937</v>
       </c>
       <c r="I2" t="n">
         <v>0.1461306605391556</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1396601276709054</v>
+        <v>-0.1396601276709057</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009975719514975796</v>
+        <v>0.009975719514975593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.833165788881528</v>
+        <v>0.8331657888815313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04432289199813647</v>
+        <v>0.04432289199813646</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08303667622337231</v>
+        <v>-0.08303667622337249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1029881152533239</v>
+        <v>0.1029881152533237</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.833165788881528</v>
+        <v>0.8331657888815313</v>
       </c>
       <c r="I3" t="n">
         <v>0.2679605975959831</v>
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08592490281500016</v>
+        <v>-0.08592490281500072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0340273155290502</v>
+        <v>0.03402731552904897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04041895778185094</v>
+        <v>0.04041895778185092</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1653447486857648</v>
+        <v>-0.1653447486857654</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006505056944235477</v>
+        <v>-0.00650505694423606</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.05104097329357531</v>
+        <v>0.05104097329357346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.537562389927433</v>
+        <v>0.5375623899274331</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -596,19 +596,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1043291886107173</v>
+        <v>-0.1043291886107176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02643822187443609</v>
+        <v>0.0264382218744356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04850702953811597</v>
+        <v>0.04850702953811595</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1963954836295262</v>
+        <v>-0.1963954836295265</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01226289359190835</v>
+        <v>-0.01226289359190869</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.04758879937398496</v>
+        <v>0.04758879937398408</v>
       </c>
       <c r="I5" t="n">
         <v>0.3802757288204393</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1043291886107173</v>
+        <v>-0.1043291886107176</v>
       </c>
     </row>
     <row r="6">
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1155036260852044</v>
+        <v>-0.1155036260852049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00468224176744055</v>
+        <v>0.004682241767440348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04104101912038622</v>
+        <v>0.04104101912038621</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1953700187494349</v>
+        <v>-0.1953700187494354</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03563723342097389</v>
+        <v>-0.03563723342097443</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.02107008795348247</v>
+        <v>0.02107008795348157</v>
       </c>
       <c r="I6" t="n">
         <v>0.5241625734716201</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1155036260852044</v>
+        <v>-0.1155036260852049</v>
       </c>
     </row>
     <row r="7">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04759289556119588</v>
+        <v>-0.0475928955611962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3066972287060356</v>
+        <v>0.3066972287060321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04859893972964509</v>
+        <v>0.04859893972964506</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1389882304772572</v>
+        <v>-0.1389882304772575</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04380243935486544</v>
+        <v>0.04380243935486509</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3943250083363314</v>
+        <v>0.3943250083363271</v>
       </c>
       <c r="I7" t="n">
         <v>0.3504483482136214</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0451007419779971</v>
+        <v>-0.04510074197799738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3554783019848073</v>
+        <v>0.3554783019848045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04446331755992692</v>
+        <v>0.04446331755992693</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1409210254466157</v>
+        <v>-0.140921025446616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05071954149062151</v>
+        <v>0.05071954149062121</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.3999130897329083</v>
+        <v>0.399913089732905</v>
       </c>
       <c r="I8" t="n">
         <v>0.2826170322835517</v>
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.09084341269150611</v>
+        <v>-0.09084341269150657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02544809672883233</v>
+        <v>0.02544809672883153</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03953511056754638</v>
+        <v>0.03953511056754637</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1704745753443322</v>
+        <v>-0.1704745753443327</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01121225003868</v>
+        <v>-0.01121225003868048</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.04758879937398496</v>
+        <v>0.04758879937398408</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4928763423092032</v>
+        <v>0.4928763423092033</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.09084341269150611</v>
+        <v>-0.09084341269150657</v>
       </c>
     </row>
     <row r="10">
@@ -776,19 +776,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1310879078735433</v>
+        <v>-0.1310879078735437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001506492258898278</v>
+        <v>0.00150649225889822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04312359925949763</v>
+        <v>0.04312359925949762</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2117760461146594</v>
+        <v>-0.2117760461146599</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05039976963242709</v>
+        <v>-0.05039976963242758</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.0135584303300845</v>
+        <v>0.01355843033008398</v>
       </c>
       <c r="I10" t="n">
         <v>0.4850697080611166</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1310879078735433</v>
+        <v>-0.1310879078735437</v>
       </c>
     </row>
   </sheetData>
@@ -878,19 +878,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2165630141907857</v>
+        <v>-0.2165630141907854</v>
       </c>
       <c r="C2" t="n">
-        <v>5.644194889371482e-05</v>
+        <v>5.644194889371595e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05708982411162725</v>
+        <v>0.05708982411162724</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3212516611304777</v>
+        <v>-0.3212516611304773</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1118743672510937</v>
+        <v>-0.1118743672510934</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.0001015955080086867</v>
+        <v>0.0001015955080086887</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1461306605391555</v>
+        <v>0.1461306605391556</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2165630141907857</v>
+        <v>-0.2165630141907854</v>
       </c>
     </row>
     <row r="3">
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02525032671921858</v>
+        <v>-0.02525032671921819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5905291931824543</v>
+        <v>0.5905291931824601</v>
       </c>
       <c r="D3" t="n">
         <v>0.05258518142165357</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1174044539032604</v>
+        <v>-0.11740445390326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06690380046482328</v>
+        <v>0.06690380046482365</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7592518198060128</v>
+        <v>0.7592518198060202</v>
       </c>
       <c r="I3" t="n">
         <v>0.2679605975959831</v>
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3871186818411732</v>
+        <v>-0.3871186818411728</v>
       </c>
       <c r="C4" t="n">
-        <v>2.961610713128857e-20</v>
+        <v>2.961610713129068e-20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03901998037931282</v>
+        <v>0.03901998037931279</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4658056839252831</v>
+        <v>-0.4658056839252827</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3084316797570633</v>
+        <v>-0.3084316797570629</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.332724820907985e-19</v>
+        <v>1.332724820908081e-19</v>
       </c>
       <c r="I4" t="n">
         <v>0.537562389927433</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3871186818411732</v>
+        <v>-0.3871186818411728</v>
       </c>
     </row>
     <row r="5">
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000320566942572097</v>
+        <v>0.0003205669425725671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9944927476092352</v>
+        <v>0.9944927476092271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05170358707815563</v>
+        <v>0.05170358707815562</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09089618963247488</v>
+        <v>-0.09089618963247439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09153732351761908</v>
+        <v>0.09153732351761953</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9944927476092352</v>
+        <v>0.9944927476092271</v>
       </c>
       <c r="I5" t="n">
         <v>0.3802757288204393</v>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4182917729232223</v>
+        <v>-0.4182917729232216</v>
       </c>
       <c r="C6" t="n">
-        <v>7.454630625181202e-23</v>
+        <v>7.454630625181951e-23</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03793672659033017</v>
+        <v>0.03793672659033016</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4974212013062357</v>
+        <v>-0.4974212013062351</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3391623445402088</v>
+        <v>-0.3391623445402082</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.709167562663082e-22</v>
+        <v>6.709167562663756e-22</v>
       </c>
       <c r="I6" t="n">
-        <v>0.52416257347162</v>
+        <v>0.5241625734716201</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4182917729232223</v>
+        <v>-0.4182917729232216</v>
       </c>
     </row>
     <row r="7">
@@ -1058,19 +1058,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09741903833331451</v>
+        <v>-0.097419038333314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03503886044039259</v>
+        <v>0.03503886044039357</v>
       </c>
       <c r="D7" t="n">
         <v>0.05079480758754083</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1879710260659594</v>
+        <v>-0.1879710260659589</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006867050600669569</v>
+        <v>-0.006867050600669056</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.05255829066058888</v>
+        <v>0.05255829066059036</v>
       </c>
       <c r="I7" t="n">
         <v>0.3504483482136214</v>
@@ -1094,19 +1094,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.00831129824599103</v>
+        <v>-0.008311298245990658</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8634822611265365</v>
+        <v>0.8634822611265425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05990652778873824</v>
+        <v>0.05990652778873825</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.10324740347672</v>
+        <v>-0.1032474034767196</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08662480698473794</v>
+        <v>0.0866248069847383</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9714175437673536</v>
+        <v>0.9714175437673602</v>
       </c>
       <c r="I8" t="n">
         <v>0.2826170322835517</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2866049242857387</v>
+        <v>-0.2866049242857382</v>
       </c>
       <c r="C9" t="n">
-        <v>3.688314581585589e-12</v>
+        <v>3.688314581585883e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03669605341212331</v>
+        <v>0.03669605341212329</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.365501293233863</v>
+        <v>-0.3655012932338626</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2077085553376144</v>
+        <v>-0.2077085553376139</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.106494374475677e-11</v>
+        <v>1.106494374475765e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4928763423092033</v>
+        <v>0.4928763423092032</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2866049242857387</v>
+        <v>-0.2866049242857382</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1804751318590229</v>
+        <v>-0.1804751318590224</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145712828088527e-05</v>
+        <v>1.145712828088589e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04407311003141737</v>
+        <v>0.04407311003141735</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.260418723191008</v>
+        <v>-0.2604187231910075</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1005315405270378</v>
+        <v>-0.1005315405270373</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.577853863199187e-05</v>
+        <v>2.577853863199326e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0.4850697080611166</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1804751318590229</v>
+        <v>-0.1804751318590224</v>
       </c>
     </row>
   </sheetData>
